--- a/paper/tbl_fig/tables.xlsx
+++ b/paper/tbl_fig/tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ji\Google Drive\npo_classifier\paper\tbl_fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm92629\Google Drive\npo_classifier\paper\tbl_fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CDCCF-9EDB-44A4-AF8C-1D56AECAA191}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="1305" windowWidth="19140" windowHeight="11505" activeTab="1" xr2:uid="{10E72ABC-ACDB-459B-AAD7-FCEBC228293C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="8880" windowHeight="10380" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="universal_files" sheetId="3" r:id="rId1"/>
+    <sheet name="compare_broad" sheetId="4" r:id="rId2"/>
+    <sheet name="best_broad_cat" sheetId="1" r:id="rId3"/>
+    <sheet name="best_major" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>I</t>
   </si>
@@ -136,16 +137,175 @@
     <t>Source: Stengel, Lampkin, and Stevenson 1998, p153, Table 2.</t>
   </si>
   <si>
-    <t>Algorithm Accuracy</t>
-  </si>
-  <si>
-    <t>Human-coder Accuracy</t>
+    <t>NTEE1</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>reported 2013</t>
+  </si>
+  <si>
+    <t>Arts, culture, and humanities</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Animal-re lated</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Medical research</t>
+  </si>
+  <si>
+    <t>Crime and legal-related</t>
+  </si>
+  <si>
+    <t>Employment and job-related</t>
+  </si>
+  <si>
+    <t>Food, agriculture, and nutrition</t>
+  </si>
+  <si>
+    <t>Environmental quality, protection, and beautification</t>
+  </si>
+  <si>
+    <t>Mental health and crisis intervention</t>
+  </si>
+  <si>
+    <t>Diseases, disorders, and medical disciplines</t>
+  </si>
+  <si>
+    <t>Housing and shelter</t>
+  </si>
+  <si>
+    <t>Youth development</t>
+  </si>
+  <si>
+    <t>Other public and societal benefit</t>
+  </si>
+  <si>
+    <t>Religion-related</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Public safety, disaster preparedness, and relief</t>
+  </si>
+  <si>
+    <t>Recreation, sports, leisure, and athletics</t>
+  </si>
+  <si>
+    <t>Human services-multipurpose and other</t>
+  </si>
+  <si>
+    <t>International, foreign affairs, and national security</t>
+  </si>
+  <si>
+    <t>Civil rights, social action, and advocacy</t>
+  </si>
+  <si>
+    <t>Community improvement and capacity building</t>
+  </si>
+  <si>
+    <t>Philanthropy, voluntarism, and grantmaking foundations</t>
+  </si>
+  <si>
+    <t>Science and technology research institutions and services</t>
+  </si>
+  <si>
+    <t>Social science research institutes and services</t>
+  </si>
+  <si>
+    <t>Mutual/membership benefit organizations</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>H-Accuracy</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>iba</t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>H-Precision</t>
+  </si>
+  <si>
+    <t>TP+FP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>C, D</t>
+  </si>
+  <si>
+    <t>E, F, G, H</t>
+  </si>
+  <si>
+    <t>I, J, K, L, M, N, O, P</t>
+  </si>
+  <si>
+    <t>R, S, T, U, V, W</t>
+  </si>
+  <si>
+    <t>n-pre</t>
+  </si>
+  <si>
+    <t>n-rec</t>
+  </si>
+  <si>
+    <t>n-f1</t>
+  </si>
+  <si>
+    <t>r-pre</t>
+  </si>
+  <si>
+    <t>r-rec</t>
+  </si>
+  <si>
+    <t>r-f1</t>
+  </si>
+  <si>
+    <t>%Obs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,9 +335,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,88 +658,848 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FC06EB-F52E-4E0D-B72A-31B14AEB3DB8}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(A2, ". ", B2)</f>
+        <v>A. Arts, culture, and humanities</v>
+      </c>
+      <c r="D2">
+        <v>17010</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.110151</v>
+      </c>
+      <c r="F2">
+        <v>4291</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.11114599999999999</v>
+      </c>
+      <c r="H2">
+        <v>35813</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C27" si="0">CONCATENATE(A3, ". ", B3)</f>
+        <v>B. Education</v>
+      </c>
+      <c r="D3">
+        <v>25827</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.16724700000000001</v>
+      </c>
+      <c r="F3">
+        <v>6419</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.166265</v>
+      </c>
+      <c r="H3">
+        <v>67879</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>C. Environmental quality, protection, and beautification</v>
+      </c>
+      <c r="D4">
+        <v>3323</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.1519E-2</v>
+      </c>
+      <c r="F4">
+        <v>827</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.1420999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>9054</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>D. Animal-re lated</v>
+      </c>
+      <c r="D5">
+        <v>4239</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.7449999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>1034</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.6783000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>8740</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>E. Health</v>
+      </c>
+      <c r="D6">
+        <v>9015</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.8377999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2307</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.9755999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>25643</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>F. Mental health and crisis intervention</v>
+      </c>
+      <c r="D7">
+        <v>2301</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.4900999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>543</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.4064999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>8481</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>G. Diseases, disorders, and medical disciplines</v>
+      </c>
+      <c r="D8">
+        <v>5053</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.2722000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>1353</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.5045E-2</v>
+      </c>
+      <c r="H8">
+        <v>10697</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>H. Medical research</v>
+      </c>
+      <c r="D9">
+        <v>467</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.0240000000000002E-3</v>
+      </c>
+      <c r="F9">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.264E-3</v>
+      </c>
+      <c r="H9">
+        <v>2203</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.83157899999999996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>I. Crime and legal-related</v>
+      </c>
+      <c r="D10">
+        <v>2947</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.9084E-2</v>
+      </c>
+      <c r="F10">
+        <v>740</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.9168000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>8687</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.6399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>J. Employment and job-related</v>
+      </c>
+      <c r="D11">
+        <v>4772</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.0901999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>1132</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.9321E-2</v>
+      </c>
+      <c r="H11">
+        <v>15841</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>K. Food, agriculture, and nutrition</v>
+      </c>
+      <c r="D12">
+        <v>2009</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.3010000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>522</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.3521E-2</v>
+      </c>
+      <c r="H12">
+        <v>7444</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>L. Housing and shelter</v>
+      </c>
+      <c r="D13">
+        <v>5942</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.8477999999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>1537</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.9810999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>20428</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.8599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>M. Public safety, disaster preparedness, and relief</v>
+      </c>
+      <c r="D14">
+        <v>4693</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.039E-2</v>
+      </c>
+      <c r="F14">
+        <v>1140</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.9527999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>10857</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.0499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>N. Recreation, sports, leisure, and athletics</v>
+      </c>
+      <c r="D15">
+        <v>15460</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.10011399999999999</v>
+      </c>
+      <c r="F15">
+        <v>3925</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.10166600000000001</v>
+      </c>
+      <c r="H15">
+        <v>43987</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8.3100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>O. Youth development</v>
+      </c>
+      <c r="D16">
+        <v>1731</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1209E-2</v>
+      </c>
+      <c r="F16">
+        <v>409</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0593999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>7878</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>P. Human services-multipurpose and other</v>
+      </c>
+      <c r="D17">
+        <v>9180</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.9447E-2</v>
+      </c>
+      <c r="F17">
+        <v>2318</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.0040999999999997E-2</v>
+      </c>
+      <c r="H17">
+        <v>40880</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.7300000000000008E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Q. International, foreign affairs, and national security</v>
+      </c>
+      <c r="D18">
+        <v>1987</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.2867E-2</v>
+      </c>
+      <c r="F18">
+        <v>436</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.1292999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>7288</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>R. Civil rights, social action, and advocacy</v>
+      </c>
+      <c r="D19">
+        <v>1064</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.8900000000000003E-3</v>
+      </c>
+      <c r="F19">
+        <v>257</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.6569999999999997E-3</v>
+      </c>
+      <c r="H19">
+        <v>2830</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>S. Community improvement and capacity building</v>
+      </c>
+      <c r="D20">
+        <v>14459</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.3632000000000007E-2</v>
+      </c>
+      <c r="F20">
+        <v>3603</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.3325000000000005E-2</v>
+      </c>
+      <c r="H20">
+        <v>48387</v>
+      </c>
+      <c r="I20" s="1">
+        <v>9.1400000000000009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>T. Philanthropy, voluntarism, and grantmaking foundations</v>
+      </c>
+      <c r="D21">
+        <v>2032</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.3159000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>541</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.4012999999999999E-2</v>
+      </c>
+      <c r="H21">
+        <v>84338</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.15939999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>U. Science and technology research institutions and services</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.476E-3</v>
+      </c>
+      <c r="F22">
+        <v>225</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.8279999999999998E-3</v>
+      </c>
+      <c r="H22">
+        <v>3039</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5.6999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>V. Social science research institutes and services</v>
+      </c>
+      <c r="D23">
+        <v>350</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.2659999999999998E-3</v>
+      </c>
+      <c r="F23">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.202E-3</v>
+      </c>
+      <c r="H23">
+        <v>940</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>W. Other public and societal benefit</v>
+      </c>
+      <c r="D24">
+        <v>8357</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.4116999999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>2038</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.2788000000000002E-2</v>
+      </c>
+      <c r="H24">
+        <v>20862</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>X. Religion-related</v>
+      </c>
+      <c r="D25">
+        <v>4566</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.9568000000000001E-2</v>
+      </c>
+      <c r="F25">
+        <v>1098</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.844E-2</v>
+      </c>
+      <c r="H25">
+        <v>20699</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Y. Mutual/membership benefit organizations</v>
+      </c>
+      <c r="D26">
+        <v>6640</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.2998000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>1701</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.4059000000000001E-2</v>
+      </c>
+      <c r="H26">
+        <v>15712</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Z. Unknown</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27">
+        <v>547</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D2:D27)</f>
+        <v>154424</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28:H28" si="1">SUM(E2:E27)</f>
+        <v>0.99999900000000008</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>38607</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>529154</v>
+      </c>
+      <c r="I28" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.83024799999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.79965900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.82101999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.75375199999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.82539399999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.3183E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.63293600000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.67572600000000005</v>
       </c>
     </row>
   </sheetData>
@@ -582,418 +1509,1552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15B6628-46A8-45E0-9D0A-A781EE809BAC}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C27"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="2" max="8" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.11114564716243168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.8458</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.16626518507006502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.8203693630688736E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.11212992462506799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.4059367472220064E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.8538</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.30364959722330148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.1414</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.1293288781827129E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.17481285777190664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.8440438262491256E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <f>F2^2+F3^2+F4^2+F5^2+F6^2+F7^2+F8^2+F9^2+F10^2</f>
+        <v>5.4978427599999993</v>
+      </c>
+      <c r="G11" s="4">
+        <f>G2^2+G3^2+G4^2+G5^2+G6^2+G7^2+G8^2+G9^2+G10^2</f>
+        <v>5.3646000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="6" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.88491446345256608</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.92715231788079466</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.8458</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.8538</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.76635514018691586</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1414</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.86567164179104483</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="11" width="10.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <f>1-(E2/D2)</f>
+      <c r="B2" s="4">
+        <f>1-(G2/F2)</f>
         <v>0.88491446345256608</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F2">
         <v>643</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="L2">
+        <v>0.88</v>
+      </c>
+      <c r="M2">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <f>1-(E3/D3)</f>
+      <c r="B3" s="4">
+        <f>1-(G3/F3)</f>
         <v>0.92715231788079466</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F3">
         <v>2265</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <f>1-(E4/D4)</f>
+      <c r="B4" s="4">
+        <f>1-(G4/F4)</f>
         <v>0.85714285714285721</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F4">
         <v>126</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L4">
+        <v>0.65</v>
+      </c>
+      <c r="M4">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <f>1-(E5/D5)</f>
+      <c r="B5" s="4">
+        <f>1-(G5/F5)</f>
         <v>0.898876404494382</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F5">
         <v>89</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L5">
+        <v>0.85</v>
+      </c>
+      <c r="M5">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <f>1-(E6/D6)</f>
+      <c r="B6" s="4">
+        <f>1-(G6/F6)</f>
         <v>0.92330978809283548</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F6">
         <v>3964</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="L6">
+        <v>0.76</v>
+      </c>
+      <c r="M6">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <f>1-(E7/D7)</f>
+      <c r="B7" s="4">
+        <f>1-(G7/F7)</f>
         <v>0.85792349726775963</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F7">
         <v>183</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L7">
+        <v>0.41</v>
+      </c>
+      <c r="M7">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <f>1-(E8/D8)</f>
+      <c r="B8" s="4">
+        <f>1-(G8/F8)</f>
         <v>0.64963503649635035</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F8">
         <v>137</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="L8">
+        <v>0.63</v>
+      </c>
+      <c r="M8">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <f>1-(E9/D9)</f>
+      <c r="B9" s="4">
+        <f>1-(G9/F9)</f>
         <v>0.72972972972972971</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>111</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
-        <f>1-(E10/D10)</f>
+      <c r="B10" s="4">
+        <f>1-(G10/F10)</f>
         <v>0.84090909090909094</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
         <v>44</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="L10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M10">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <f>1-(E11/D11)</f>
+      <c r="B11" s="4">
+        <f>1-(G11/F11)</f>
         <v>0.72093023255813948</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F11">
         <v>86</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="L11">
+        <v>0.6</v>
+      </c>
+      <c r="M11">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
-        <f>1-(E12/D12)</f>
+      <c r="B12" s="4">
+        <f>1-(G12/F12)</f>
         <v>0.81818181818181812</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F12">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L12">
+        <v>0.73</v>
+      </c>
+      <c r="M12">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1">
-        <f>1-(E13/D13)</f>
+      <c r="B13" s="4">
+        <f>1-(G13/F13)</f>
         <v>0.82774049217002243</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F13">
         <v>447</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L13">
+        <v>0.71</v>
+      </c>
+      <c r="M13">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
-        <f>1-(E14/D14)</f>
+      <c r="B14" s="4">
+        <f>1-(G14/F14)</f>
         <v>0.875</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F14">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L14">
+        <v>0.86</v>
+      </c>
+      <c r="M14">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1">
-        <f>1-(E15/D15)</f>
+      <c r="B15" s="4">
+        <f>1-(G15/F15)</f>
         <v>0.87804878048780488</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F15">
         <v>123</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L15">
+        <v>0.85</v>
+      </c>
+      <c r="M15">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1">
-        <f>1-(E16/D16)</f>
+      <c r="B16" s="4">
+        <f>1-(G16/F16)</f>
         <v>0.90756302521008403</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
         <v>119</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="L16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M16">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1">
-        <f>1-(E17/D17)</f>
+      <c r="B17" s="4">
+        <f>1-(G17/F17)</f>
         <v>0.87509758001561277</v>
       </c>
-      <c r="D17">
+      <c r="C17" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F17">
         <v>1281</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="L17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M17">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
-        <f>1-(E18/D18)</f>
+      <c r="B18" s="4">
+        <f>1-(G18/F18)</f>
         <v>0.76635514018691586</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
         <v>107</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L18">
+        <v>0.47</v>
+      </c>
+      <c r="M18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
-        <f>1-(E19/D19)</f>
+      <c r="B19" s="4">
+        <f>1-(G19/F19)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="L19">
+        <v>0.33</v>
+      </c>
+      <c r="M19">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
-        <f>1-(E20/D20)</f>
+      <c r="B20" s="4">
+        <f>1-(G20/F20)</f>
         <v>0.75438596491228072</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F20">
         <v>171</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L20">
+        <v>0.71</v>
+      </c>
+      <c r="M20">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
-        <f>1-(E21/D21)</f>
+      <c r="B21" s="4">
+        <f>1-(G21/F21)</f>
         <v>0.78411053540587217</v>
       </c>
-      <c r="D21">
+      <c r="C21" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="F21">
         <v>579</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I21" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L21">
+        <v>0.46</v>
+      </c>
+      <c r="M21">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
-        <f>1-(E22/D22)</f>
+      <c r="B22" s="4">
+        <f>1-(G22/F22)</f>
         <v>0.76363636363636367</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F22">
         <v>110</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I22" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="L22">
+        <v>0.48</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
-        <f>1-(E23/D23)</f>
+      <c r="B23" s="4">
+        <f>1-(G23/F23)</f>
         <v>0.23529411764705888</v>
       </c>
-      <c r="D23">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>17</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1">
-        <f>1-(E24/D24)</f>
+      <c r="B24" s="4">
+        <f>1-(G24/F24)</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="D24">
+      <c r="C24" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F24">
         <v>50</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I24" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="L24">
+        <v>0.88</v>
+      </c>
+      <c r="M24">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1">
-        <f>1-(E25/D25)</f>
+      <c r="B25" s="4">
+        <f>1-(G25/F25)</f>
         <v>0.86567164179104483</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F25">
         <v>134</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I25" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="L25">
+        <v>0.75</v>
+      </c>
+      <c r="M25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1">
-        <f>1-(E26/D26)</f>
+      <c r="B26" s="4">
+        <f>1-(G26/F26)</f>
         <v>0.89523809523809528</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F26">
         <v>105</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="L26">
+        <v>0.78</v>
+      </c>
+      <c r="M26">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1">
-        <f>1-(E27/D27)</f>
+      <c r="B27" s="4">
+        <f>1-(G27/F27)</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="D27">
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27">
         <v>20</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>

--- a/paper/tbl_fig/tables.xlsx
+++ b/paper/tbl_fig/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="8880" windowHeight="10380" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="8880" windowHeight="10380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="universal_files" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>I</t>
   </si>
@@ -251,15 +251,6 @@
     <t>H-Accuracy</t>
   </si>
   <si>
-    <t>geo</t>
-  </si>
-  <si>
-    <t>iba</t>
-  </si>
-  <si>
-    <t>sup</t>
-  </si>
-  <si>
     <t>H-Precision</t>
   </si>
   <si>
@@ -300,6 +291,9 @@
   </si>
   <si>
     <t>%Obs</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1523,25 +1517,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,30 +1792,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="6" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="3" max="7" width="9.140625" style="4"/>
     <col min="8" max="8" width="12.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1838,16 +1831,16 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0.88491446345256608</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>0.86850000000000005</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>0.84809999999999997</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>0.85819999999999996</v>
       </c>
       <c r="H2" s="4">
@@ -1864,16 +1857,16 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.92715231788079466</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.8458</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>0.88129999999999997</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0.86319999999999997</v>
       </c>
       <c r="H3" s="4">
@@ -1885,21 +1878,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.87</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0.76080000000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.89580000000000004</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>0.82279999999999998</v>
       </c>
       <c r="H4" s="4">
@@ -1911,21 +1904,21 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0.92</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.75900000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.87290000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>0.81200000000000006</v>
       </c>
       <c r="H5" s="4">
@@ -1937,21 +1930,21 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>0.86</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.85219999999999996</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.85550000000000004</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0.8538</v>
       </c>
       <c r="H6" s="4">
@@ -1968,16 +1961,16 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>0.76635514018691586</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>0.59319999999999995</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0.1414</v>
       </c>
       <c r="H7" s="4">
@@ -1989,21 +1982,21 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>0.76</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>0.87909999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.75919999999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>0.81479999999999997</v>
       </c>
       <c r="H8" s="4">
@@ -2020,16 +2013,16 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>0.86567164179104483</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>0.65380000000000005</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.76870000000000005</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>0.70660000000000001</v>
       </c>
       <c r="H9" s="4">
@@ -2046,16 +2039,16 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0.89523809523809528</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>0.90069999999999995</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.85299999999999998</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>0.87619999999999998</v>
       </c>
       <c r="H10" s="4">
@@ -2076,23 +2069,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A2" sqref="A2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="11" width="10.42578125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="10.42578125" style="4" customWidth="1"/>
+    <col min="10" max="12" width="10.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>66</v>
@@ -2100,791 +2093,527 @@
       <c r="D1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>76</v>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" t="s">
+      <c r="H1" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <f>1-(G2/F2)</f>
+        <f t="shared" ref="B2:B27" si="0">1-(H2/G2)</f>
         <v>0.88491446345256608</v>
       </c>
       <c r="C2" s="4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F2">
+        <v>0.87</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G2">
         <v>643</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>74</v>
       </c>
-      <c r="I2" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="L2">
-        <v>0.88</v>
-      </c>
-      <c r="M2">
-        <v>3757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
-        <f>1-(G3/F3)</f>
+        <f t="shared" si="0"/>
         <v>0.92715231788079466</v>
       </c>
       <c r="C3" s="4">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="F3">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G3">
         <v>2265</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>165</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L3">
-        <v>0.8</v>
-      </c>
-      <c r="M3">
-        <v>6805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <f>1-(G4/F4)</f>
+        <f t="shared" si="0"/>
         <v>0.85714285714285721</v>
       </c>
       <c r="C4" s="4">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="D4" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F4">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G4">
         <v>126</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="L4">
-        <v>0.65</v>
-      </c>
-      <c r="M4">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <f>1-(G5/F5)</f>
+        <f t="shared" si="0"/>
         <v>0.898876404494382</v>
       </c>
       <c r="C5" s="4">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G5">
         <v>89</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="L5">
-        <v>0.85</v>
-      </c>
-      <c r="M5">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
-        <f>1-(G6/F6)</f>
+        <f t="shared" si="0"/>
         <v>0.92330978809283548</v>
       </c>
       <c r="C6" s="4">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="D6" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="F6">
+        <v>0.78</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G6">
         <v>3964</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>304</v>
       </c>
-      <c r="I6" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="L6">
-        <v>0.76</v>
-      </c>
-      <c r="M6">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
-        <f>1-(G7/F7)</f>
+        <f t="shared" si="0"/>
         <v>0.85792349726775963</v>
       </c>
       <c r="C7" s="4">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G7">
         <v>183</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>26</v>
       </c>
-      <c r="I7" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="L7">
-        <v>0.41</v>
-      </c>
-      <c r="M7">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
-        <f>1-(G8/F8)</f>
+        <f t="shared" si="0"/>
         <v>0.64963503649635035</v>
       </c>
       <c r="C8" s="4">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="D8" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="F8">
+        <v>0.68</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G8">
         <v>137</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>48</v>
       </c>
-      <c r="I8" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="L8">
-        <v>0.63</v>
-      </c>
-      <c r="M8">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
-        <f>1-(G9/F9)</f>
+        <f t="shared" si="0"/>
         <v>0.72972972972972971</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>0.19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G9">
         <v>111</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4">
-        <f>1-(G10/F10)</f>
+        <f t="shared" si="0"/>
         <v>0.84090909090909094</v>
       </c>
       <c r="C10" s="4">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="D10" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
+        <v>0.71</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G10">
         <v>44</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="L10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M10">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4">
-        <f>1-(G11/F11)</f>
+        <f t="shared" si="0"/>
         <v>0.72093023255813948</v>
       </c>
       <c r="C11" s="4">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D11" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="F11">
+        <v>0.67</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G11">
         <v>86</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>24</v>
       </c>
-      <c r="I11" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="L11">
-        <v>0.6</v>
-      </c>
-      <c r="M11">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4">
-        <f>1-(G12/F12)</f>
+        <f t="shared" si="0"/>
         <v>0.81818181818181812</v>
       </c>
       <c r="C12" s="4">
         <v>0.63</v>
       </c>
       <c r="D12" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="F12">
+        <v>0.68</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="G12">
         <v>22</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="L12">
-        <v>0.73</v>
-      </c>
-      <c r="M12">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4">
-        <f>1-(G13/F13)</f>
+        <f t="shared" si="0"/>
         <v>0.82774049217002243</v>
       </c>
       <c r="C13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.76</v>
       </c>
-      <c r="D13" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G13">
         <v>447</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>77</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L13">
-        <v>0.71</v>
-      </c>
-      <c r="M13">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4">
-        <f>1-(G14/F14)</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="C14" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.88</v>
       </c>
-      <c r="D14" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="L14">
-        <v>0.86</v>
-      </c>
-      <c r="M14">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4">
-        <f>1-(G15/F15)</f>
+        <f t="shared" si="0"/>
         <v>0.87804878048780488</v>
       </c>
       <c r="C15" s="4">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="D15" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="F15">
+        <v>0.93</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G15">
         <v>123</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15</v>
       </c>
-      <c r="I15" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="L15">
-        <v>0.85</v>
-      </c>
-      <c r="M15">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4">
-        <f>1-(G16/F16)</f>
+        <f t="shared" si="0"/>
         <v>0.90756302521008403</v>
       </c>
       <c r="C16" s="4">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="D16" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F16">
+        <v>0.61</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="G16">
         <v>119</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>11</v>
       </c>
-      <c r="I16" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="L16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M16">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4">
-        <f>1-(G17/F17)</f>
+        <f t="shared" si="0"/>
         <v>0.87509758001561277</v>
       </c>
       <c r="C17" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D17" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D17" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
         <v>1281</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>160</v>
       </c>
-      <c r="I17" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="L17">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M17">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4">
-        <f>1-(G18/F18)</f>
+        <f t="shared" si="0"/>
         <v>0.76635514018691586</v>
       </c>
       <c r="C18" s="4">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="D18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
+        <v>0.36</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="G18">
         <v>107</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>25</v>
       </c>
-      <c r="I18" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="L18">
-        <v>0.47</v>
-      </c>
-      <c r="M18">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4">
-        <f>1-(G19/F19)</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="C19" s="4">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="D19" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F19">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G19">
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="L19">
-        <v>0.33</v>
-      </c>
-      <c r="M19">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <f>1-(G20/F20)</f>
+        <f t="shared" si="0"/>
         <v>0.75438596491228072</v>
       </c>
       <c r="C20" s="4">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="D20" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F20">
+        <v>0.79</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="G20">
         <v>171</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>42</v>
       </c>
-      <c r="I20" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L20">
-        <v>0.71</v>
-      </c>
-      <c r="M20">
-        <v>4085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4">
-        <f>1-(G21/F21)</f>
+        <f t="shared" si="0"/>
         <v>0.78411053540587217</v>
       </c>
       <c r="C21" s="4">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="D21" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="F21">
+        <v>0.32</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="G21">
         <v>579</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>125</v>
       </c>
-      <c r="I21" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="L21">
-        <v>0.46</v>
-      </c>
-      <c r="M21">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="4">
-        <f>1-(G22/F22)</f>
+        <f t="shared" si="0"/>
         <v>0.76363636363636367</v>
       </c>
       <c r="C22" s="4">
-        <v>0.09</v>
+        <v>0.52</v>
       </c>
       <c r="D22" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="F22">
+        <v>0.22</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="G22">
         <v>110</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>26</v>
       </c>
-      <c r="I22" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="L22">
-        <v>0.48</v>
-      </c>
-      <c r="M22">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4">
-        <f>1-(G23/F23)</f>
+        <f t="shared" si="0"/>
         <v>0.23529411764705888</v>
       </c>
       <c r="C23" s="4">
@@ -2893,142 +2622,94 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>17</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>13</v>
       </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="4">
-        <f>1-(G24/F24)</f>
+        <f t="shared" si="0"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="C24" s="4">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="D24" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="F24">
+        <v>0.86</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="G24">
         <v>50</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>21</v>
       </c>
-      <c r="I24" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="L24">
-        <v>0.88</v>
-      </c>
-      <c r="M24">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
-        <f>1-(G25/F25)</f>
+        <f t="shared" si="0"/>
         <v>0.86567164179104483</v>
       </c>
       <c r="C25" s="4">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="D25" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="F25">
+        <v>0.71</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G25">
         <v>134</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>18</v>
       </c>
-      <c r="I25" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="L25">
-        <v>0.75</v>
-      </c>
-      <c r="M25">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="4">
-        <f>1-(G26/F26)</f>
+        <f t="shared" si="0"/>
         <v>0.89523809523809528</v>
       </c>
       <c r="C26" s="4">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="D26" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F26">
+        <v>0.91</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G26">
         <v>105</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>11</v>
       </c>
-      <c r="I26" s="4">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="L26">
-        <v>0.78</v>
-      </c>
-      <c r="M26">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4">
-        <f>1-(G27/F27)</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -3037,24 +2718,21 @@
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27">
+      <c r="E27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>18</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
